--- a/SG3_final.xlsx
+++ b/SG3_final.xlsx
@@ -3,29 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F5409C-26E8-4243-A650-774C1CC23BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96186F07-1507-4D40-99DF-0FA41A27BF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
+    <sheet name="SG3" sheetId="2" r:id="rId1"/>
     <sheet name="U01SG3_final" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="U02SG3_final" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="U03SG32_final" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="U04SG3_final" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="U05SG3_final" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="U06SG3_final" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="U07SG3_final" sheetId="8" r:id="rId8"/>
-    <sheet name="U08SG3_final" r:id="rId13" sheetId="9"/>
-    <sheet name="U09SG3_final" r:id="rId14" sheetId="10"/>
-    <sheet name="U10SG3_final" r:id="rId15" sheetId="11"/>
-    <sheet name="U11SG3_final" r:id="rId16" sheetId="12"/>
-    <sheet name="U12SG3_final" r:id="rId17" sheetId="13"/>
+    <sheet name="U07SG3_final" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="U08SG3_final" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="U09SG3_final" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="U10SG3_final" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="U11SG3_final" sheetId="12" r:id="rId12"/>
+    <sheet name="U12SG3_final" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="97">
   <si>
     <t>Utente</t>
   </si>
@@ -785,30 +785,48 @@
   <dimension ref="A1:AX28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.3984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="4.86328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.3984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.46484375" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.9296875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.9296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="18.06640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.06640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="22.1328125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="20.1328125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="19.86328125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="19.46484375" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.46484375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.796875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.06640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.59765625" customWidth="1"/>
+    <col min="15" max="15" width="22.06640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.9296875" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" customWidth="1"/>
+    <col min="18" max="18" width="17.19921875" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="13.19921875" customWidth="1"/>
+    <col min="23" max="23" width="12.06640625" customWidth="1"/>
+    <col min="25" max="25" width="18.3984375" customWidth="1"/>
+    <col min="26" max="26" width="20.1328125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.86328125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.46484375" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.265625" customWidth="1"/>
+    <col min="31" max="31" width="17.53125" customWidth="1"/>
+    <col min="32" max="32" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="14.59765625" customWidth="1"/>
+    <col min="34" max="34" width="17.06640625" customWidth="1"/>
+    <col min="35" max="35" width="13.59765625" customWidth="1"/>
+    <col min="36" max="36" width="13.796875" customWidth="1"/>
+    <col min="37" max="37" width="17.9296875" customWidth="1"/>
+    <col min="40" max="40" width="11.9296875" customWidth="1"/>
+    <col min="41" max="41" width="11.33203125" customWidth="1"/>
+    <col min="46" max="46" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.45">
@@ -871,7 +889,7 @@
       <c r="AW1" s="14"/>
       <c r="AX1" s="14"/>
     </row>
-    <row r="2" spans="1:50" s="8" customFormat="1" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:50" s="8" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,11 +1061,11 @@
         <v>10</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G14" si="0">F3-E3</f>
         <v>8.4490740740739145E-4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="1">SUM(B3:D3)</f>
+        <f t="shared" ref="H3:H14" si="1">SUM(B3:D3)</f>
         <v>3</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -1063,43 +1081,117 @@
       <c r="M3" s="9">
         <v>15</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
+      <c r="N3" s="9">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9">
+        <v>4</v>
+      </c>
+      <c r="P3" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>6</v>
+      </c>
+      <c r="R3" s="9">
+        <v>6</v>
+      </c>
+      <c r="S3" s="9">
+        <v>5</v>
+      </c>
+      <c r="T3" s="9">
+        <v>3</v>
+      </c>
+      <c r="U3" s="9">
+        <v>2</v>
+      </c>
+      <c r="V3" s="9">
+        <v>5</v>
+      </c>
+      <c r="W3" s="9">
+        <v>3</v>
+      </c>
+      <c r="X3" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1143,43 +1235,117 @@
       <c r="M4" s="10">
         <v>1</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
+      <c r="N4" s="9">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9">
+        <v>6</v>
+      </c>
+      <c r="P4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>6</v>
+      </c>
+      <c r="R4" s="9">
+        <v>6</v>
+      </c>
+      <c r="S4" s="9">
+        <v>6</v>
+      </c>
+      <c r="T4" s="9">
+        <v>5</v>
+      </c>
+      <c r="U4" s="9">
+        <v>4</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <v>6</v>
+      </c>
+      <c r="X4" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1223,43 +1389,117 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
+      <c r="N5" s="9">
+        <v>6</v>
+      </c>
+      <c r="O5" s="9">
+        <v>6</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>6</v>
+      </c>
+      <c r="R5" s="9">
+        <v>6</v>
+      </c>
+      <c r="S5" s="9">
+        <v>6</v>
+      </c>
+      <c r="T5" s="9">
+        <v>6</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9">
+        <v>6</v>
+      </c>
+      <c r="X5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1301,43 +1541,117 @@
       <c r="M6" s="10">
         <v>5</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
+      <c r="N6" s="9">
+        <v>7</v>
+      </c>
+      <c r="O6" s="9">
+        <v>7</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>7</v>
+      </c>
+      <c r="R6" s="9">
+        <v>4</v>
+      </c>
+      <c r="S6" s="9">
+        <v>7</v>
+      </c>
+      <c r="T6" s="9">
+        <v>7</v>
+      </c>
+      <c r="U6" s="9">
+        <v>7</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <v>7</v>
+      </c>
+      <c r="X6" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1379,43 +1693,117 @@
       <c r="M7" s="10">
         <v>4</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
+      <c r="N7" s="9">
+        <v>7</v>
+      </c>
+      <c r="O7" s="9">
+        <v>7</v>
+      </c>
+      <c r="P7" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>7</v>
+      </c>
+      <c r="R7" s="9">
+        <v>7</v>
+      </c>
+      <c r="S7" s="9">
+        <v>7</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9">
+        <v>7</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1</v>
+      </c>
+      <c r="W7" s="9">
+        <v>7</v>
+      </c>
+      <c r="X7" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1459,43 +1847,117 @@
       <c r="M8" s="10">
         <v>8</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
+      <c r="N8" s="9">
+        <v>5</v>
+      </c>
+      <c r="O8" s="9">
+        <v>4</v>
+      </c>
+      <c r="P8" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>6</v>
+      </c>
+      <c r="R8" s="9">
+        <v>6</v>
+      </c>
+      <c r="S8" s="9">
+        <v>6</v>
+      </c>
+      <c r="T8" s="9">
+        <v>6</v>
+      </c>
+      <c r="U8" s="9">
+        <v>6</v>
+      </c>
+      <c r="V8" s="9">
+        <v>3</v>
+      </c>
+      <c r="W8" s="9">
+        <v>5</v>
+      </c>
+      <c r="X8" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="9">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AU8" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AX8" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -1537,47 +1999,145 @@
       <c r="M9" s="10">
         <v>2</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
+      <c r="N9" s="9">
+        <v>6</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>6</v>
+      </c>
+      <c r="R9" s="9">
+        <v>6</v>
+      </c>
+      <c r="S9" s="9">
+        <v>6</v>
+      </c>
+      <c r="T9" s="9">
+        <v>2</v>
+      </c>
+      <c r="U9" s="9">
+        <v>5</v>
+      </c>
+      <c r="V9" s="9">
+        <v>3</v>
+      </c>
+      <c r="W9" s="9">
+        <v>4</v>
+      </c>
+      <c r="X9" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AX9" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.481481481481528E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I10" s="10" t="s">
         <v>62</v>
       </c>
@@ -1591,47 +2151,145 @@
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
+      <c r="N10" s="9">
+        <v>7</v>
+      </c>
+      <c r="O10" s="9">
+        <v>7</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>7</v>
+      </c>
+      <c r="R10" s="9">
+        <v>4</v>
+      </c>
+      <c r="S10" s="9">
+        <v>7</v>
+      </c>
+      <c r="T10" s="9">
+        <v>5</v>
+      </c>
+      <c r="U10" s="9">
+        <v>5</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1</v>
+      </c>
+      <c r="W10" s="9">
+        <v>7</v>
+      </c>
+      <c r="X10" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>4</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="9">
+        <v>4</v>
+      </c>
+      <c r="AX10" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0532407407407574E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I11" s="10" t="s">
         <v>62</v>
       </c>
@@ -1645,47 +2303,145 @@
       <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
+      <c r="N11" s="9">
+        <v>7</v>
+      </c>
+      <c r="O11" s="9">
+        <v>7</v>
+      </c>
+      <c r="P11" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>7</v>
+      </c>
+      <c r="R11" s="9">
+        <v>7</v>
+      </c>
+      <c r="S11" s="9">
+        <v>7</v>
+      </c>
+      <c r="T11" s="9">
+        <v>6</v>
+      </c>
+      <c r="U11" s="9">
+        <v>6</v>
+      </c>
+      <c r="V11" s="9">
+        <v>2</v>
+      </c>
+      <c r="W11" s="9">
+        <v>6</v>
+      </c>
+      <c r="X11" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AR11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AT11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999734E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I12" s="10" t="s">
         <v>62</v>
       </c>
@@ -1699,47 +2455,145 @@
       <c r="M12" s="10">
         <v>0</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
+      <c r="N12" s="9">
+        <v>7</v>
+      </c>
+      <c r="O12" s="9">
+        <v>7</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>7</v>
+      </c>
+      <c r="S12" s="9">
+        <v>7</v>
+      </c>
+      <c r="T12" s="9">
+        <v>6</v>
+      </c>
+      <c r="U12" s="9">
+        <v>7</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <v>7</v>
+      </c>
+      <c r="X12" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>4</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>6.828703703704031E-4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1755,47 +2609,145 @@
       <c r="M13" s="10">
         <v>8</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
+      <c r="N13" s="9">
+        <v>7</v>
+      </c>
+      <c r="O13" s="9">
+        <v>7</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>7</v>
+      </c>
+      <c r="R13" s="9">
+        <v>7</v>
+      </c>
+      <c r="S13" s="9">
+        <v>7</v>
+      </c>
+      <c r="T13" s="9">
+        <v>4</v>
+      </c>
+      <c r="U13" s="9">
+        <v>4</v>
+      </c>
+      <c r="V13" s="9">
+        <v>5</v>
+      </c>
+      <c r="W13" s="9">
+        <v>6</v>
+      </c>
+      <c r="X13" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AP13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AT13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>7.7546296296299166E-4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I14" s="10" t="s">
         <v>59</v>
       </c>
@@ -1809,43 +2761,117 @@
       <c r="M14" s="10">
         <v>15</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
+      <c r="N14" s="9">
+        <v>6</v>
+      </c>
+      <c r="O14" s="9">
+        <v>7</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>7</v>
+      </c>
+      <c r="R14" s="9">
+        <v>5</v>
+      </c>
+      <c r="S14" s="9">
+        <v>6</v>
+      </c>
+      <c r="T14" s="9">
+        <v>6</v>
+      </c>
+      <c r="U14" s="9">
+        <v>6</v>
+      </c>
+      <c r="V14" s="9">
+        <v>2</v>
+      </c>
+      <c r="W14" s="9">
+        <v>5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>3</v>
+      </c>
+      <c r="AT14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU14" s="9">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AW14" s="9">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.45">
       <c r="E15" s="7"/>
@@ -1916,15 +2942,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +2971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1968,20 +2995,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +3029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2025,20 +3053,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2082,20 +3111,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +3169,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2550,15 +3580,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2602,6 +3633,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>